--- a/Horarios_Unicos_Semestre2.xlsx
+++ b/Horarios_Unicos_Semestre2.xlsx
@@ -492,20 +492,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPE/417</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA TEO - UPO/501</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPE/416</t>
         </is>
       </c>
     </row>
@@ -522,7 +526,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPE/417</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -531,7 +535,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPE/416</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
         </is>
       </c>
     </row>
@@ -546,18 +550,22 @@
           <t>10:10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D-NEUROANATOMIA PRA - UPO/413</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+          <t>D-EMBRIOLOGIA PRA - UPE/424</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA PRA - UPO/414</t>
+          <t>D-NEUROANATOMIA TEO - UPO/012</t>
         </is>
       </c>
     </row>
@@ -579,7 +587,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA PRA - UPE/417</t>
+          <t>D-NEUROANATOMIA TEO - UPO/012</t>
         </is>
       </c>
     </row>
@@ -618,10 +626,14 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -636,14 +648,18 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA TEO - UPO/012</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,20 +672,16 @@
           <t>15:35</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>D-NEUROANATOMIA TEO - UPO/015</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>D-EMBRIOLOGIA TEO - UPO/522</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -682,20 +694,16 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>D-NEUROANATOMIA TEO - UPO/015</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D-EMBRIOLOGIA TEO - UPO/522</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -711,7 +719,11 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -729,11 +741,15 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/518</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/520</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -748,14 +764,10 @@
           <t>19:49</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/518</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/520</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -776,29 +788,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/223</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -813,22 +817,18 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/223</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
@@ -905,24 +905,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/417</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D-NEUROANATOMIA PRA - UPE/416</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA PRA - UPO/415</t>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPO/415</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/512</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
         </is>
       </c>
     </row>
@@ -939,16 +939,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/417</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPO/415</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
         </is>
       </c>
     </row>
@@ -964,13 +968,17 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA PRA - UPE/417</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/512</t>
         </is>
       </c>
     </row>
@@ -985,11 +993,7 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D-EMBRIOLOGIA PRA - UPE/417</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -1014,7 +1018,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+          <t>D-NEUROANATOMIA TEO - UPO/012</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1039,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+          <t>D-NEUROANATOMIA TEO - UPO/012</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1065,12 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1092,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
         </is>
       </c>
     </row>
@@ -1124,13 +1128,13 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1144,17 +1148,9 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/520</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -1172,13 +1168,13 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/520</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+          <t>D-EMBRIOLOGIA TEO - UPO/501</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1195,23 +1191,27 @@
           <t>20:49</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPE/416</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA TEO - UPO/214</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA TEO - UPO/501</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1225,23 +1225,23 @@
           <t>21:49</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPE/416</t>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA TEO - UPO/214</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1316,26 +1316,22 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D-NEUROANATOMIA PRA - UPO/415</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPE/424</t>
+          <t>D-EMBRIOLOGIA PRA - UPO/415</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/121</t>
         </is>
       </c>
     </row>
@@ -1354,20 +1350,16 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA PRA - UPO/415</t>
+          <t>D-NEUROANATOMIA PRA - UPO/-503</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPE/424</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
-        </is>
-      </c>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1383,7 +1375,11 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -1398,7 +1394,11 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPO/309</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/416</t>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPO/309</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1440,19 +1440,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/416</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D-NEUROANATOMIA TEO - UPO/012</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1468,13 +1464,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1494,11 +1494,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1512,11 +1508,7 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>D-NEUROANATOMIA TEO - UPO/012</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1553,7 +1545,11 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA TEO - UPO/501</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
@@ -1574,10 +1570,14 @@
           <t>19:49</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
+          <t>D-EMBRIOLOGIA TEO - UPO/501</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1602,21 +1602,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/512</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D-NEUROANATOMIA TEO - UPO/015</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1632,27 +1640,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/512</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/214</t>
+          <t>D-NEUROANATOMIA TEO - UPO/015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1729,22 +1729,26 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA PRA - UPO/-503</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/224</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA PRA - UPO/414</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA TEO - UPO/012</t>
+          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
         </is>
       </c>
     </row>
@@ -1762,15 +1766,15 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPE/416</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA TEO - UPO/012</t>
+          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
         </is>
       </c>
     </row>
@@ -1786,15 +1790,15 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D-EMBRIOLOGIA PRA - UPE/417</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D-NEUROANATOMIA PRA - UPE/417</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1807,12 +1811,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>D-PROCEDIMIENTOS BASICOS I - UPO/309</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1831,14 +1835,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPO/309</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/416</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1851,16 +1859,24 @@
           <t>13:25</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/416</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/516</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/515</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1874,16 +1890,12 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/516</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/515</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1899,19 +1911,15 @@
           <t>15:35</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D-NEUROANATOMIA TEO - UPO/015</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1925,15 +1933,15 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D-NEUROANATOMIA TEO - UPO/015</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1990,7 +1998,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/516</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2015,25 +2023,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
-        </is>
-      </c>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/516</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2049,22 +2053,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA TEO - UPE/318</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
-        </is>
-      </c>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -2144,20 +2144,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA PRA - UPO/309</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
-        </is>
-      </c>
+          <t>D-EMBRIOLOGIA TEO - UPO/501</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/505</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPE/424</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPO/415</t>
+          <t>D-NEUROANATOMIA TEO - UPO/012</t>
         </is>
       </c>
     </row>
@@ -2176,10 +2180,14 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D-PROCEDIMIENTOS BASICOS I - UPE/424</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D-PROCEDIMIENTOS BASICOS I - UPO/415</t>
+          <t>D-NEUROANATOMIA TEO - UPO/012</t>
         </is>
       </c>
     </row>
@@ -2197,15 +2205,11 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/424</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D-EMBRIOLOGIA PRA - UPO/415</t>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/319</t>
         </is>
       </c>
     </row>
@@ -2223,13 +2227,13 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/424</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2247,11 +2251,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/214</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2270,14 +2270,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D-NEUROANATOMIA TEO - UPO/012</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/214</t>
-        </is>
-      </c>
+          <t>D-NEUROANATOMIA PRA - UPO/410</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2291,19 +2287,15 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/518</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2317,19 +2309,19 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/518</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
-        </is>
-      </c>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2343,7 +2335,11 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA PRA - UPO/415</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2364,11 +2360,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>D-EMBRIOLOGIA TEO - UPO/522</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2382,23 +2374,19 @@
           <t>18:49</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D-NEUROANATOMIA TEO - UPO/012</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D-EMBRIOLOGIA TEO - UPO/213</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/221</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>D-EMBRIOLOGIA TEO - UPO/522</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2413,7 +2401,11 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
@@ -2436,17 +2428,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2462,12 +2462,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
+          <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D-PENSAMIENTO CRITICO APLICADO - UPE/319</t>
+          <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
